--- a/map/public/all_station_line.xlsx
+++ b/map/public/all_station_line.xlsx
@@ -6636,7 +6636,7 @@
         <v>23</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7442,7 +7442,7 @@
         <v>27</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
